--- a/Designer/Export/Output/Rule/R_TC.xlsx
+++ b/Designer/Export/Output/Rule/R_TC.xlsx
@@ -75,7 +75,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ac780819-8eb5-4509-9329-1210209625f1" xfId="1"/>
+    <cellStyle name="5ff72809-d5e9-4afe-a6be-91e68442a934" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
